--- a/SchedulingData/static7/pso/scheduling1_14.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_14.xlsx
@@ -466,169 +466,169 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>64.86</v>
+        <v>73.28</v>
       </c>
       <c r="E2" t="n">
-        <v>25.684</v>
+        <v>24.852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>66.40000000000001</v>
+        <v>49.64</v>
       </c>
       <c r="E3" t="n">
-        <v>24.06</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>64.86</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>122.66</v>
+        <v>77.2</v>
       </c>
       <c r="E4" t="n">
-        <v>21.524</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>122.66</v>
+        <v>49.64</v>
       </c>
       <c r="D5" t="n">
-        <v>189.22</v>
+        <v>104.34</v>
       </c>
       <c r="E5" t="n">
-        <v>17.988</v>
+        <v>22.376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>119.52</v>
+        <v>55.58</v>
       </c>
       <c r="E6" t="n">
-        <v>20.868</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>55.58</v>
       </c>
       <c r="D7" t="n">
-        <v>71.36</v>
+        <v>96</v>
       </c>
       <c r="E7" t="n">
-        <v>26.024</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>86.54000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>25.476</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>71.36</v>
+        <v>73.28</v>
       </c>
       <c r="D9" t="n">
-        <v>127.96</v>
+        <v>123.58</v>
       </c>
       <c r="E9" t="n">
-        <v>22.504</v>
+        <v>20.952</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>70.76000000000001</v>
+        <v>56.12</v>
       </c>
       <c r="E10" t="n">
-        <v>25.584</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="11">
@@ -637,264 +637,264 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>70.76000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>136.08</v>
+        <v>130.1</v>
       </c>
       <c r="E11" t="n">
-        <v>22.672</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>119.52</v>
+        <v>96</v>
       </c>
       <c r="D12" t="n">
-        <v>190.76</v>
+        <v>172.4</v>
       </c>
       <c r="E12" t="n">
-        <v>17.844</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>136.08</v>
+        <v>123.58</v>
       </c>
       <c r="D13" t="n">
-        <v>183</v>
+        <v>179.58</v>
       </c>
       <c r="E13" t="n">
-        <v>19.6</v>
+        <v>17.472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>86.54000000000001</v>
+        <v>172.4</v>
       </c>
       <c r="D14" t="n">
-        <v>138.64</v>
+        <v>257.8</v>
       </c>
       <c r="E14" t="n">
-        <v>21.396</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>127.96</v>
+        <v>77.2</v>
       </c>
       <c r="D15" t="n">
-        <v>190.32</v>
+        <v>137.56</v>
       </c>
       <c r="E15" t="n">
-        <v>19.908</v>
+        <v>21.504</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>183</v>
+        <v>56.12</v>
       </c>
       <c r="D16" t="n">
-        <v>237.64</v>
+        <v>120.82</v>
       </c>
       <c r="E16" t="n">
-        <v>16.256</v>
+        <v>23.208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>189.22</v>
+        <v>257.8</v>
       </c>
       <c r="D17" t="n">
-        <v>268.42</v>
+        <v>332.36</v>
       </c>
       <c r="E17" t="n">
-        <v>12.668</v>
+        <v>11.884</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>190.76</v>
+        <v>179.58</v>
       </c>
       <c r="D18" t="n">
-        <v>256.68</v>
+        <v>244.04</v>
       </c>
       <c r="E18" t="n">
-        <v>13.372</v>
+        <v>14.616</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>190.32</v>
+        <v>244.04</v>
       </c>
       <c r="D19" t="n">
-        <v>259.7</v>
+        <v>309.16</v>
       </c>
       <c r="E19" t="n">
-        <v>16.08</v>
+        <v>11.704</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>268.42</v>
+        <v>130.1</v>
       </c>
       <c r="D20" t="n">
-        <v>329.76</v>
+        <v>196.1</v>
       </c>
       <c r="E20" t="n">
-        <v>9.644</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>137.56</v>
       </c>
       <c r="D21" t="n">
-        <v>84.95999999999999</v>
+        <v>187.86</v>
       </c>
       <c r="E21" t="n">
-        <v>27.144</v>
+        <v>18.584</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>138.64</v>
+        <v>332.36</v>
       </c>
       <c r="D22" t="n">
-        <v>228.84</v>
+        <v>385.58</v>
       </c>
       <c r="E22" t="n">
-        <v>16.456</v>
+        <v>8.192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>84.95999999999999</v>
+        <v>309.16</v>
       </c>
       <c r="D23" t="n">
-        <v>155.46</v>
+        <v>367.56</v>
       </c>
       <c r="E23" t="n">
-        <v>22.204</v>
+        <v>7.984</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>155.46</v>
+        <v>120.82</v>
       </c>
       <c r="D24" t="n">
-        <v>221.66</v>
+        <v>174.56</v>
       </c>
       <c r="E24" t="n">
-        <v>18.204</v>
+        <v>19.944</v>
       </c>
     </row>
     <row r="25">
@@ -903,169 +903,169 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>221.66</v>
+        <v>385.58</v>
       </c>
       <c r="D25" t="n">
-        <v>264.98</v>
+        <v>427.12</v>
       </c>
       <c r="E25" t="n">
-        <v>14.512</v>
+        <v>5.168</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>329.76</v>
+        <v>187.86</v>
       </c>
       <c r="D26" t="n">
-        <v>370.26</v>
+        <v>245.06</v>
       </c>
       <c r="E26" t="n">
-        <v>6.724</v>
+        <v>15.504</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>256.68</v>
+        <v>104.34</v>
       </c>
       <c r="D27" t="n">
-        <v>334.36</v>
+        <v>181</v>
       </c>
       <c r="E27" t="n">
-        <v>8.224</v>
+        <v>18.84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>264.98</v>
+        <v>174.56</v>
       </c>
       <c r="D28" t="n">
-        <v>320.4</v>
+        <v>223.14</v>
       </c>
       <c r="E28" t="n">
-        <v>11.08</v>
+        <v>17.216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>228.84</v>
+        <v>196.1</v>
       </c>
       <c r="D29" t="n">
-        <v>282.88</v>
+        <v>262.54</v>
       </c>
       <c r="E29" t="n">
-        <v>12.192</v>
+        <v>13.256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>259.7</v>
+        <v>181</v>
       </c>
       <c r="D30" t="n">
-        <v>316.52</v>
+        <v>258.44</v>
       </c>
       <c r="E30" t="n">
-        <v>13.008</v>
+        <v>15.716</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>320.4</v>
+        <v>223.14</v>
       </c>
       <c r="D31" t="n">
-        <v>384.4</v>
+        <v>282.74</v>
       </c>
       <c r="E31" t="n">
-        <v>7.3</v>
+        <v>11.896</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>370.26</v>
+        <v>258.44</v>
       </c>
       <c r="D32" t="n">
-        <v>440.26</v>
+        <v>328.54</v>
       </c>
       <c r="E32" t="n">
-        <v>2.824</v>
+        <v>11.796</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>334.36</v>
+        <v>282.74</v>
       </c>
       <c r="D33" t="n">
-        <v>406.88</v>
+        <v>335.34</v>
       </c>
       <c r="E33" t="n">
-        <v>4.572</v>
+        <v>9.256</v>
       </c>
     </row>
     <row r="34">
@@ -1074,74 +1074,74 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>237.64</v>
+        <v>262.54</v>
       </c>
       <c r="D34" t="n">
-        <v>314</v>
+        <v>324.74</v>
       </c>
       <c r="E34" t="n">
-        <v>12.72</v>
+        <v>10.616</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>384.4</v>
+        <v>245.06</v>
       </c>
       <c r="D35" t="n">
-        <v>434.72</v>
+        <v>310.88</v>
       </c>
       <c r="E35" t="n">
-        <v>4.388</v>
+        <v>11.032</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>314</v>
+        <v>335.34</v>
       </c>
       <c r="D36" t="n">
-        <v>380.7</v>
+        <v>402.76</v>
       </c>
       <c r="E36" t="n">
-        <v>9.640000000000001</v>
+        <v>5.604</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>406.88</v>
+        <v>324.74</v>
       </c>
       <c r="D37" t="n">
-        <v>487.98</v>
+        <v>376.56</v>
       </c>
       <c r="E37" t="n">
-        <v>1.052</v>
+        <v>7.544</v>
       </c>
     </row>
     <row r="38">
@@ -1150,36 +1150,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>487.98</v>
+        <v>310.88</v>
       </c>
       <c r="D38" t="n">
-        <v>557.78</v>
+        <v>377.34</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>7.496</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>282.88</v>
+        <v>427.12</v>
       </c>
       <c r="D39" t="n">
-        <v>347.88</v>
+        <v>466.96</v>
       </c>
       <c r="E39" t="n">
-        <v>7.332</v>
+        <v>1.824</v>
       </c>
     </row>
     <row r="40">
@@ -1188,55 +1188,55 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>434.72</v>
+        <v>466.96</v>
       </c>
       <c r="D40" t="n">
-        <v>502.16</v>
+        <v>559.71</v>
       </c>
       <c r="E40" t="n">
-        <v>1.264</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>502.16</v>
+        <v>376.56</v>
       </c>
       <c r="D41" t="n">
-        <v>576.63</v>
+        <v>432.86</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>4.024</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>347.88</v>
+        <v>367.56</v>
       </c>
       <c r="D42" t="n">
-        <v>390.58</v>
+        <v>413.72</v>
       </c>
       <c r="E42" t="n">
-        <v>4.692</v>
+        <v>4.008</v>
       </c>
     </row>
     <row r="43">
@@ -1245,17 +1245,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>440.26</v>
+        <v>413.72</v>
       </c>
       <c r="D43" t="n">
-        <v>516.3099999999999</v>
+        <v>450.84</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1264,112 +1264,112 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>516.3099999999999</v>
+        <v>450.84</v>
       </c>
       <c r="D44" t="n">
-        <v>570.75</v>
+        <v>535.5700000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>26.736</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>570.75</v>
+        <v>402.76</v>
       </c>
       <c r="D45" t="n">
-        <v>615.65</v>
+        <v>492.16</v>
       </c>
       <c r="E45" t="n">
-        <v>23.376</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>380.7</v>
+        <v>492.16</v>
       </c>
       <c r="D46" t="n">
-        <v>449.3</v>
+        <v>557.67</v>
       </c>
       <c r="E46" t="n">
-        <v>6.36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>316.52</v>
+        <v>328.54</v>
       </c>
       <c r="D47" t="n">
-        <v>372.36</v>
+        <v>423.84</v>
       </c>
       <c r="E47" t="n">
-        <v>10.044</v>
+        <v>5.856</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>449.3</v>
+        <v>377.34</v>
       </c>
       <c r="D48" t="n">
-        <v>482.1</v>
+        <v>422.02</v>
       </c>
       <c r="E48" t="n">
-        <v>3.72</v>
+        <v>3.668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>576.63</v>
+        <v>535.5700000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>655.09</v>
+        <v>584.91</v>
       </c>
       <c r="E49" t="n">
-        <v>26.304</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="50">
@@ -1378,17 +1378,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>390.58</v>
+        <v>423.84</v>
       </c>
       <c r="D50" t="n">
-        <v>480.78</v>
+        <v>503.1</v>
       </c>
       <c r="E50" t="n">
-        <v>0.772</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="51">
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>480.78</v>
+        <v>503.1</v>
       </c>
       <c r="D51" t="n">
-        <v>580.74</v>
+        <v>591.72</v>
       </c>
       <c r="E51" t="n">
         <v>30</v>
@@ -1412,59 +1412,59 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>655.09</v>
+        <v>557.67</v>
       </c>
       <c r="D52" t="n">
-        <v>703.5700000000001</v>
+        <v>620.77</v>
       </c>
       <c r="E52" t="n">
-        <v>23.576</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>703.5700000000001</v>
+        <v>432.86</v>
       </c>
       <c r="D53" t="n">
-        <v>752.0700000000001</v>
+        <v>512.26</v>
       </c>
       <c r="E53" t="n">
-        <v>19.856</v>
+        <v>1.664</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>557.78</v>
+        <v>512.26</v>
       </c>
       <c r="D54" t="n">
-        <v>612.38</v>
+        <v>620.23</v>
       </c>
       <c r="E54" t="n">
-        <v>26.22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -1473,131 +1473,131 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>612.38</v>
+        <v>422.02</v>
       </c>
       <c r="D55" t="n">
-        <v>671.12</v>
+        <v>515.98</v>
       </c>
       <c r="E55" t="n">
-        <v>22.476</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>615.65</v>
+        <v>515.98</v>
       </c>
       <c r="D56" t="n">
-        <v>666.65</v>
+        <v>575.78</v>
       </c>
       <c r="E56" t="n">
-        <v>19.896</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>372.36</v>
+        <v>575.78</v>
       </c>
       <c r="D57" t="n">
-        <v>434.86</v>
+        <v>671.8200000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>5.904</v>
+        <v>23.196</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>580.74</v>
+        <v>620.23</v>
       </c>
       <c r="D58" t="n">
-        <v>655.9</v>
+        <v>683.95</v>
       </c>
       <c r="E58" t="n">
-        <v>27.624</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>482.1</v>
+        <v>584.91</v>
       </c>
       <c r="D59" t="n">
-        <v>556.5</v>
+        <v>657.51</v>
       </c>
       <c r="E59" t="n">
-        <v>1.36</v>
+        <v>22.096</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>556.5</v>
+        <v>559.71</v>
       </c>
       <c r="D60" t="n">
-        <v>665.08</v>
+        <v>622.27</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>434.86</v>
+        <v>657.51</v>
       </c>
       <c r="D61" t="n">
-        <v>499.74</v>
+        <v>703.45</v>
       </c>
       <c r="E61" t="n">
-        <v>1.536</v>
+        <v>19.132</v>
       </c>
     </row>
     <row r="62">
@@ -1606,36 +1606,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>499.74</v>
+        <v>620.77</v>
       </c>
       <c r="D62" t="n">
-        <v>578.5700000000001</v>
+        <v>679.87</v>
       </c>
       <c r="E62" t="n">
-        <v>30</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>671.12</v>
+        <v>622.27</v>
       </c>
       <c r="D63" t="n">
-        <v>745.72</v>
+        <v>670.53</v>
       </c>
       <c r="E63" t="n">
-        <v>19.116</v>
+        <v>23.708</v>
       </c>
     </row>
   </sheetData>
